--- a/PWL_POS_PT2/public/template_penjualan.xlsx
+++ b/PWL_POS_PT2/public/template_penjualan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Lelyta2AWebLanjut\Minggu 8\PWL_POS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Lelyta2AWebLanjut\PWL_POS_PT2\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AB9D92-7B47-425D-9A4F-7265EBCAF556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F54D6F4-4E62-49CE-865A-569A5611B488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9B9C5934-EE08-4F3D-A47E-064C90A217A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{04AE7E76-9A00-485C-B2E5-157039719095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,24 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>user_id</t>
   </si>
   <si>
+    <t>penjualan_kode</t>
+  </si>
+  <si>
+    <t>penjualan_tanggal</t>
+  </si>
+  <si>
     <t>pembeli</t>
   </si>
   <si>
-    <t>penjualan_kode</t>
-  </si>
-  <si>
-    <t>penjualan_tanggal</t>
-  </si>
-  <si>
-    <t>Customer 11</t>
-  </si>
-  <si>
-    <t>TRX011</t>
+    <t>barang_id</t>
+  </si>
+  <si>
+    <t>jumlah</t>
+  </si>
+  <si>
+    <t>TRX015</t>
+  </si>
+  <si>
+    <t>Bastian</t>
   </si>
 </sst>
 </file>
@@ -406,21 +412,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D788024-C015-4FB9-A3DE-625135B7D7D6}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ADAD2E-8DE4-44E0-AAFB-A77512F0D904}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,22 +439,35 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45756</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45760.898611111108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>